--- a/basico/Listado.xlsx
+++ b/basico/Listado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desa\war\cursos\DESARROLLO-WEB-FULL-STACK\basico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2F0593-C1FF-4055-90C4-0B0EE8C7DA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF34ED-2532-40BA-B251-D061FC2CCF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E84A25A0-3D7C-402D-9CC6-F2318732E150}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t xml:space="preserve">Rene gomez lozano </t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t xml:space="preserve">Juan David Herrera </t>
+  </si>
+  <si>
+    <t>Efrain Velasquez</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Fabian Ordoñez</t>
+  </si>
+  <si>
+    <t>Andrea Quiñones</t>
+  </si>
+  <si>
+    <t>David Vargas Gongora</t>
   </si>
 </sst>
 </file>
@@ -102,12 +120,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -148,11 +172,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C25159-3851-4B6B-BD70-2864094CD771}">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +507,21 @@
     <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>18</v>
+      </c>
+      <c r="E1">
+        <v>19</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+      <c r="G1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -491,7 +532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -501,8 +542,14 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -512,8 +559,11 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -523,8 +573,11 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -534,8 +587,14 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -545,39 +604,87 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
